--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/YearlyHouseLoanInt.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/YearlyHouseLoanInt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8819C59-4C07-4A78-BD21-01F232EF802D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51566579-57E5-4E43-9EFC-57975B8805EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -203,17 +203,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1: 匯款轉帳
-2: 銀行扣款
-3: 員工扣薪
-4: 支票
-5: 特約金
-6: 人事特約金
-7: 定存特約
-8: 劃撥存款</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>LoanAmt</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -315,21 +304,32 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>JsonFields</t>
+  </si>
+  <si>
+    <t>jason格式紀錄欄</t>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+  </si>
+  <si>
     <t>CdAcCode會計科子細目設定檔
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>JsonFields</t>
-  </si>
-  <si>
-    <t>jason格式紀錄欄</t>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:匯款轉帳
+2:銀行扣款
+3:員工扣薪
+4:支票
+5:特約金
+6:人事特約金
+7:定存特約
+8:劃撥存款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -703,6 +703,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -713,15 +722,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1088,10 +1088,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
@@ -1103,8 +1103,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1116,12 +1116,12 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>13</v>
@@ -1131,20 +1131,20 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="46"/>
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1152,10 +1152,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
@@ -1163,10 +1163,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
@@ -1258,10 +1258,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>33</v>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="29" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="29" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="33" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1321,10 +1321,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>51</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>14</v>
@@ -1342,7 +1342,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>26</v>
@@ -1363,13 +1363,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="D17" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="E17" s="31">
         <v>8</v>
@@ -1382,13 +1382,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>57</v>
-      </c>
       <c r="D18" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="31">
         <v>8</v>
@@ -1401,10 +1401,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>59</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>14</v>
@@ -1422,13 +1422,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="D20" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>62</v>
       </c>
       <c r="E20" s="31">
         <v>8</v>
@@ -1440,16 +1440,16 @@
       <c r="A21" s="21">
         <v>13</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="46">
+      <c r="E21" s="42">
         <v>300</v>
       </c>
       <c r="F21" s="31"/>
@@ -1519,7 +1519,7 @@
       <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="46">
+      <c r="A25" s="42">
         <v>17</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -1583,46 +1583,46 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
